--- a/01_Input/00_CO Validation/Dem. Rep. of the Congo - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Dem. Rep. of the Congo - Energy Projects.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="172" documentId="11_2006316D69CDF873991CF25EA14C6D3E783B1F6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF55F66-9A33-4C01-BBCB-3C588250AFF4}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="11_2006316D69CDF873991CF25EA14C6D3E783B1F6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F5CBC3-C397-4572-A3A8-DED25DE4FB49}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>Project ID</t>
   </si>
@@ -71,22 +75,78 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
     <t>PDL-145 Territoires</t>
   </si>
   <si>
+    <t>https://open.undp.org/projects/00142763</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Number of households that will be connected</t>
+  </si>
+  <si>
     <t>2 million .200.000 of households that will be connected &amp; 5.9 average number per people/household. 12 million people with access to energy with the implementation of 172 micro power plants Around 12.000.000 will 
-•	# of business connected : needs results about baseline on business : May2023
-•	286 of health facilities connected &amp; 7500 number per people benefiting/health facility/ 2 million 145.000 people/territories
-•	 of Schools connected &amp; Average number of Children benefiting/school: 101,760 
-•	1070 forages of water boreholes connected &amp; 11 308 of people benefitting/borehole: In total: 12.1 million people
-•	84 of markets connected &amp; ???Average number of people benefitting/market: needs results about baseline on business : May2023
-•	307 Number of Admin buildings connected &amp; 3704 Average number of people benefitting/Admin building.</t>
+•	# of business connected : needs results about baseline on business : May2023</t>
   </si>
   <si>
     <t>DRC Gov</t>
   </si>
   <si>
     <t>to the CO: Please disaggregate this into rows for each outputm linked to different beneficiary categories</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Health Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people, who benefitted from services </t>
+  </si>
+  <si>
+    <t>• 286 of health facilities connected &amp; 7500 number per people benefiting/health facility/ 2 million 145.000 people/territories</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Education Services</t>
+  </si>
+  <si>
+    <t>Number of children benefiting from school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	 of Schools connected &amp; Average number of Children benefiting/school: 101,760 
+</t>
+  </si>
+  <si>
+    <t>Water Services</t>
+  </si>
+  <si>
+    <t>•	1070 forages of water boreholes connected &amp; 11 308 of people benefitting/borehole: In total: 12.1 million people</t>
   </si>
   <si>
     <t>Projet Green Energy post COVID 19 : “Accès à l’énergie verte pour atténuer les impacts de la COVID-19</t>
@@ -121,9 +181,6 @@
     <t>PIMS+</t>
   </si>
   <si>
-    <t>Energy Access</t>
-  </si>
-  <si>
     <t xml:space="preserve">-Nombre de mini -réseaux construit,
 -Nombre d’écoles avec accès à l’électricité 
 -Nombre de centres de santé avec accès à l’électricité,
@@ -147,13 +204,11 @@
     <t>to the CO: Please estimate number of beneficiaries.</t>
   </si>
   <si>
-    <t xml:space="preserve">We can find you these numbers form the AMP excel file </t>
-  </si>
-  <si>
     <t>Congo Kinshasa Microhydro</t>
   </si>
   <si>
-    <t>Energy Added (MW)</t>
+    <t xml:space="preserve">	
+Energy (MW added)</t>
   </si>
   <si>
     <t xml:space="preserve">MW
@@ -190,8 +245,7 @@
     <t>https://open.undp.org/projects/00101442</t>
   </si>
   <si>
-    <t xml:space="preserve">
- Policy and Regulatory Framework
+    <t xml:space="preserve">Policy and Regulatory Framework
 </t>
   </si>
   <si>
@@ -209,6 +263,38 @@
   </si>
   <si>
     <t>CAFI</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t>100000 HH</t>
+  </si>
+  <si>
+    <t>250000 HH</t>
+  </si>
+  <si>
+    <t>2 million .200.000 of households that will be connected &amp; 5.9 average number per people/household. 12 million people with access to energy with the implementation of 172 micro power plants Around 12.000.000 will 
+•	# of business connected : needs results about baseline on business : May2023
+• 286 of health facilities connected &amp; 7500 number per people benefiting/health facility/ 2 million 145.000 people/territories
+•	 of Schools connected &amp; Average number of Children benefiting/school: 101,760 
+•	1070 forages of water boreholes connected &amp; 11 308 of people benefitting/borehole: In total: 12.1 million people
+•	84 of markets connected &amp; ???Average number of people benefitting/market: needs results about baseline on business : May2023
+•	307 Number of Admin buildings connected &amp; 3704 Average number of people benefitting/Admin building.</t>
+  </si>
+  <si>
+    <t>Energy Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can find you these numbers form the AMP excel file </t>
+  </si>
+  <si>
+    <t>Energy Added (MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Policy and Regulatory Framework
+</t>
   </si>
   <si>
     <t>•	2 million .200.000 of households that will be connected &amp; 5.9 average number per people/household. 12 million people with access to energy with the implementation of 172 micro power plants Around 12.000.000 will 
@@ -285,18 +371,12 @@
     <t>Access to Energy</t>
   </si>
   <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
     <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
   </si>
   <si>
     <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
   </si>
   <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
     <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
   </si>
   <si>
@@ -309,19 +389,10 @@
     <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
   </si>
   <si>
-    <t>Health Services</t>
-  </si>
-  <si>
     <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
   </si>
   <si>
-    <t>Water Services</t>
-  </si>
-  <si>
     <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Education Services</t>
   </si>
   <si>
     <t>Access to education services trough clean energy systems</t>
@@ -391,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,8 +513,20 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +572,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00BDB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,17 +662,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -592,12 +670,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -673,13 +764,80 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,21 +850,30 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,11 +1179,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF9C77E-62DB-45BF-8B95-93633D45B2E3}">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="73" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45.75">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="16" customFormat="1" ht="76.5">
+      <c r="A2" s="19">
+        <v>142763</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="53">
+        <v>619829499</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55">
+        <v>12000000</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+    </row>
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="45.75">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55">
+        <v>2145000</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="43"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+    </row>
+    <row r="4" spans="1:19" s="16" customFormat="1" ht="45.75">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="47">
+        <v>101760</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+    </row>
+    <row r="5" spans="1:19" s="16" customFormat="1" ht="45.75">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="47">
+        <v>12100000</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+    </row>
+    <row r="6" spans="1:19" s="16" customFormat="1" ht="188.25">
+      <c r="A6" s="11">
+        <v>127148</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="31">
+        <v>900000</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+    </row>
+    <row r="7" spans="1:19" ht="125.25">
+      <c r="A7" s="6">
+        <v>6702</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="27">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+    </row>
+    <row r="8" spans="1:19" ht="108" customHeight="1">
+      <c r="A8" s="10">
+        <v>4690</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="28">
+        <v>3187669</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="50">
+        <v>20</v>
+      </c>
+      <c r="H8" s="50">
+        <v>30</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+    </row>
+    <row r="9" spans="1:19" ht="113.25">
+      <c r="A9" s="10">
+        <v>113647</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="28">
+        <v>15000000</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S11" xr:uid="{1FEA984B-1DD4-47EA-9BFE-635E5C0B63F3}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R11" xr:uid="{0B26237B-4359-408A-8E64-579C24471D17}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11" xr:uid="{97595FAC-86BE-43FD-AD6D-473E4F612E31}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{8648708F-7A33-4CAB-9DBE-60ACDF52F994}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11" xr:uid="{65207555-F8F2-4794-B826-34D7D81010F9}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{55F723DF-E662-43E9-AE8F-799408442A66}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{C98D25B8-9662-42B6-BDC3-81BCA7A3D192}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0FE1075-FF99-4020-8DC0-28AE02654305}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B6D20-81A4-4A51-BC39-B9FB9B959257}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1032,132 +1669,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="259.5">
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="229.5">
+      <c r="A2" s="19">
+        <v>142763</v>
+      </c>
       <c r="B2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="29">
+        <v>19</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="35">
         <v>65000000</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>16</v>
+      <c r="I2" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="188.25">
-      <c r="A3" s="17">
+      <c r="A3" s="11">
         <v>127148</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="36">
+      <c r="B3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="31">
         <v>900000</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="24">
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="9">
         <v>1.37E-2</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>20</v>
+      <c r="I3" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="125.25">
-      <c r="A4" s="6">
+      <c r="A4" s="37">
         <v>6702</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="38">
+      <c r="B4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="32">
         <v>500000</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9" t="s">
-        <v>27</v>
+      <c r="E4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="108" customHeight="1">
@@ -1165,19 +1810,19 @@
         <v>4690</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D5" s="28">
         <v>3187669</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G5" s="8">
         <v>20</v>
@@ -1186,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="113.25">
@@ -1200,32 +1845,33 @@
         <v>113647</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D6" s="28">
         <v>15000000</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{17FEF05B-94BF-465E-88F6-FA2610467103}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{68C19ED0-F74E-4525-A694-718A126B33C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1243,7 +1889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -1299,10 +1945,10 @@
         <v>6702</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>500000</v>
@@ -1318,10 +1964,10 @@
         <v>4690</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>3187669</v>
@@ -1336,7 +1982,7 @@
     </row>
     <row r="4" spans="1:10" s="16" customFormat="1" ht="396.75">
       <c r="B4" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="25">
@@ -1346,11 +1992,11 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="16" customFormat="1" ht="188.25">
@@ -1358,26 +2004,26 @@
         <v>127148</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D5" s="26">
         <v>900000</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="24" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="125.25">
@@ -1385,31 +2031,31 @@
         <v>6702</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D6" s="27">
         <v>500000</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="108" customHeight="1">
@@ -1417,31 +2063,31 @@
         <v>4690</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D7" s="28">
         <v>3187669</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="88.5">
@@ -1449,29 +2095,29 @@
         <v>113647</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D8" s="28">
         <v>15000000</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="13" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +2140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1509,160 +2155,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32" t="s">
-        <v>55</v>
+      <c r="A2" s="57" t="s">
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="57"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="57"/>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="33" t="s">
-        <v>61</v>
+      <c r="A5" s="58" t="s">
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="58"/>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="58"/>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="58"/>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="58"/>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="34" t="s">
-        <v>72</v>
+      <c r="A10" s="59" t="s">
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="59"/>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="35" t="s">
-        <v>77</v>
+      <c r="A12" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="60"/>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="60"/>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/01_Input/00_CO Validation/Dem. Rep. of the Congo - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Dem. Rep. of the Congo - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="275" documentId="11_2006316D69CDF873991CF25EA14C6D3E783B1F6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F5CBC3-C397-4572-A3A8-DED25DE4FB49}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="11_2006316D69CDF873991CF25EA14C6D3E783B1F6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49BF6FC-21D8-4FE9-BF26-9668EF0E1FE3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,10 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -93,6 +90,15 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>PDL-145 Territoires</t>
   </si>
   <si>
@@ -102,7 +108,7 @@
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Number of households that will be connected</t>
+    <t>Number of people</t>
   </si>
   <si>
     <t>2 million .200.000 of households that will be connected &amp; 5.9 average number per people/household. 12 million people with access to energy with the implementation of 172 micro power plants Around 12.000.000 will 
@@ -112,13 +118,13 @@
     <t>DRC Gov</t>
   </si>
   <si>
-    <t>to the CO: Please disaggregate this into rows for each outputm linked to different beneficiary categories</t>
+    <t>Non-VF</t>
   </si>
   <si>
     <t>Close the gap on energy access</t>
   </si>
   <si>
-    <t>Renewable Energy</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Health Services</t>
@@ -128,9 +134,6 @@
   </si>
   <si>
     <t>• 286 of health facilities connected &amp; 7500 number per people benefiting/health facility/ 2 million 145.000 people/territories</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
   <si>
     <t>Education Services</t>
@@ -175,6 +178,9 @@
     <t>PNUD</t>
   </si>
   <si>
+    <t>Some Sources</t>
+  </si>
+  <si>
     <t>National child project under the GEF Africa Minigrids Program</t>
   </si>
   <si>
@@ -199,9 +205,6 @@
   </si>
   <si>
     <t>VF</t>
-  </si>
-  <si>
-    <t>to the CO: Please estimate number of beneficiaries.</t>
   </si>
   <si>
     <t>Congo Kinshasa Microhydro</t>
@@ -225,6 +228,9 @@
 Le projet vise à soutenir la stratégie gouvernementale d’atténuation des changements climatiques ; Accompagner la transition vers une économie verte et ; Contribuer au développement de la production d’électricité dans des zones hors réseau de la RDC (technologie MHE)
 De manière spécifique, il vise à contribuer à l’amélioration de l’accès fiable à une électricité abordable, à la sécurité énergétique et la lutte contre le changement climatique à travers la contribution à un environnement favorable pour le développement des mini et micro centrales hydroélectriques 
 </t>
+  </si>
+  <si>
+    <t>Hydro</t>
   </si>
   <si>
     <r>
@@ -268,10 +274,25 @@
     <t>Clean Cooking</t>
   </si>
   <si>
+    <t>National Strategy</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
     <t>100000 HH</t>
   </si>
   <si>
     <t>250000 HH</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>2 million .200.000 of households that will be connected &amp; 5.9 average number per people/household. 12 million people with access to energy with the implementation of 172 micro power plants Around 12.000.000 will 
@@ -283,13 +304,29 @@
 •	307 Number of Admin buildings connected &amp; 3704 Average number of people benefitting/Admin building.</t>
   </si>
   <si>
+    <t>to the CO: Please disaggregate this into rows for each outputm linked to different beneficiary categories</t>
+  </si>
+  <si>
     <t>Energy Access</t>
   </si>
   <si>
+    <t>to the CO: Please estimate number of beneficiaries.</t>
+  </si>
+  <si>
     <t xml:space="preserve">We can find you these numbers form the AMP excel file </t>
   </si>
   <si>
     <t>Energy Added (MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW
+'-Décret 
+-Cadre rural d’électrification
+Politique
+-Investissements privés
+-10 MW installés
+-Ménages rural avec l’accès à l’électricité
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -362,40 +399,52 @@
     <t xml:space="preserve">-	The programme is supporting the country to create an enabling environment for clean cooking development. As such, a National Integrated Energy Policy is being elaborated alongside the LPG Master Plan prepared as an alternative to woodfuel energy. </t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
-  </si>
-  <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -404,7 +453,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -419,13 +471,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -434,19 +483,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -462,12 +511,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,8 +580,15 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,48 +603,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -683,61 +709,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -747,133 +791,161 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1180,452 +1252,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF9C77E-62DB-45BF-8B95-93633D45B2E3}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="73" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="44"/>
+    <col min="2" max="2" width="56.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="73" style="44" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="44"/>
+    <col min="14" max="14" width="14.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="44"/>
+    <col min="17" max="17" width="16.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="16" customFormat="1" ht="76.5">
-      <c r="A2" s="19">
+      <c r="T1" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="76.5">
+      <c r="A2" s="38">
         <v>142763</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="46">
+        <v>619829499</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39">
+        <v>12000000</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="38"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" ht="45.75">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39">
+        <v>2145000</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="1:21" ht="45.75">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39">
+        <v>101760</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="1:21" ht="45.75">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39">
+        <v>12100000</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" ht="188.25">
+      <c r="A6" s="50">
+        <v>127148</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="52">
+        <v>900000</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="50">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" ht="125.25">
+      <c r="A7" s="62">
+        <v>6702</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="63">
+        <v>500000</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="38"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" ht="108" customHeight="1">
+      <c r="A8" s="53">
+        <v>4690</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="55">
+        <v>3187669</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="54">
         <v>20</v>
       </c>
-      <c r="D2" s="53">
-        <v>619829499</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55">
-        <v>12000000</v>
-      </c>
-      <c r="I2" s="48" t="s">
+      <c r="H8" s="54">
+        <v>30</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="38"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="1:21" ht="113.25">
+      <c r="A9" s="56">
+        <v>113647</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="59">
+        <v>15000000</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="N9" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="17"/>
+      <c r="T9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" ht="45.75">
+      <c r="A10" s="53"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="17"/>
+    </row>
+    <row r="11" spans="1:21" ht="45.75">
+      <c r="A11" s="53"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="42" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-    </row>
-    <row r="3" spans="1:19" s="16" customFormat="1" ht="45.75">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="54" t="s">
+      <c r="M11" s="38"/>
+      <c r="N11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55">
-        <v>2145000</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-    </row>
-    <row r="4" spans="1:19" s="16" customFormat="1" ht="45.75">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="47">
-        <v>101760</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-    </row>
-    <row r="5" spans="1:19" s="16" customFormat="1" ht="45.75">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="47">
-        <v>12100000</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-    </row>
-    <row r="6" spans="1:19" s="16" customFormat="1" ht="188.25">
-      <c r="A6" s="11">
-        <v>127148</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="31">
-        <v>900000</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="51">
-        <v>1.37E-2</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-    </row>
-    <row r="7" spans="1:19" ht="125.25">
-      <c r="A7" s="6">
-        <v>6702</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="27">
-        <v>500000</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-    </row>
-    <row r="8" spans="1:19" ht="108" customHeight="1">
-      <c r="A8" s="10">
-        <v>4690</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="28">
-        <v>3187669</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="50">
-        <v>20</v>
-      </c>
-      <c r="H8" s="50">
-        <v>30</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-    </row>
-    <row r="9" spans="1:19" ht="113.25">
-      <c r="A9" s="10">
-        <v>113647</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="28">
-        <v>15000000</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" s="38"/>
+      <c r="U11" s="17"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S11" xr:uid="{1FEA984B-1DD4-47EA-9BFE-635E5C0B63F3}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R11" xr:uid="{0B26237B-4359-408A-8E64-579C24471D17}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11" xr:uid="{0B26237B-4359-408A-8E64-579C24471D17}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11" xr:uid="{97595FAC-86BE-43FD-AD6D-473E4F612E31}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{97595FAC-86BE-43FD-AD6D-473E4F612E31}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{8648708F-7A33-4CAB-9DBE-60ACDF52F994}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11" xr:uid="{65207555-F8F2-4794-B826-34D7D81010F9}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11" xr:uid="{65207555-F8F2-4794-B826-34D7D81010F9}">
-      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11" xr:uid="{DDC74171-65FF-488D-8AC8-641E9598CB81}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11" xr:uid="{0CADE575-E85E-422D-A37E-8C3BDDD6DF9A}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11" xr:uid="{0D6EA96D-074C-46E6-AE07-361489226827}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T11" xr:uid="{A30A7A62-B25E-405D-B5F5-387EDFEB7C06}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R11" xr:uid="{00AFDFCF-FF67-4B73-A67B-9147E9EA20D7}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S11" xr:uid="{E4F4B738-A89A-4D41-9D9A-4FB547E58C76}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1636,11 +1793,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0FE1075-FF99-4020-8DC0-28AE02654305}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{448F134E-97EA-4B6A-9C90-340FC20EC502}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E6</xm:sqref>
+          <xm:sqref>E2:E11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1653,7 +1810,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1669,203 +1826,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="229.5">
-      <c r="A2" s="19">
+      <c r="L1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="229.5">
+      <c r="A2" s="17">
         <v>142763</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="33">
+        <v>65000000</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="14" customFormat="1" ht="188.25">
+      <c r="A3" s="9">
+        <v>127148</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="29">
+        <v>900000</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="125.25">
+      <c r="A4" s="35">
+        <v>6702</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="30">
+        <v>500000</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="108" customHeight="1">
+      <c r="A5" s="8">
+        <v>4690</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="26">
+        <v>3187669</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="35">
-        <v>65000000</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="16" customFormat="1" ht="188.25">
-      <c r="A3" s="11">
-        <v>127148</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="31">
-        <v>900000</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="9">
-        <v>1.37E-2</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="125.25">
-      <c r="A4" s="37">
-        <v>6702</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="32">
-        <v>500000</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="30" t="s">
+      <c r="H5" s="6">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="108" customHeight="1">
-      <c r="A5" s="10">
-        <v>4690</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="L5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="28">
-        <v>3187669</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="8">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8">
-        <v>30</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="6" spans="1:14" ht="113.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>113647</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="B6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="26">
         <v>15000000</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="E6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>59</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +2036,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82E89346-F282-4E8A-80A0-3A067BECFF06}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
@@ -1936,7 +2093,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1945,10 +2102,10 @@
         <v>6702</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>500000</v>
@@ -1964,10 +2121,10 @@
         <v>4690</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>3187669</v>
@@ -1980,144 +2137,144 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="16" customFormat="1" ht="396.75">
-      <c r="B4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="25">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="396.75">
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23">
         <v>65000000</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="16" customFormat="1" ht="188.25">
-      <c r="A5" s="17">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="188.25">
+      <c r="A5" s="15">
         <v>127148</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="B5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="24">
         <v>900000</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="E5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>41</v>
       </c>
+      <c r="J5" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="125.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>6702</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="25">
         <v>500000</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="108" customHeight="1">
+      <c r="A7" s="8">
+        <v>4690</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="108" customHeight="1">
-      <c r="A7" s="10">
-        <v>4690</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>3187669</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>47</v>
+      <c r="E7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="88.5">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>113647</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="26">
         <v>15000000</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="E8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>59</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2287,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
@@ -2142,244 +2299,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="57"/>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="57"/>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="58"/>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="58"/>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B1" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="58"/>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="58"/>
-      <c r="B9" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="73" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="59" t="s">
+      <c r="B5" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B6" s="66" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="59"/>
-      <c r="B11" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="60" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B10" s="74" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="60"/>
-      <c r="B13" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B11" s="74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="60"/>
-      <c r="B14" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B12" s="66" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B13" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="73" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="B14" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="73" t="s">
         <v>109</v>
       </c>
+      <c r="B15" s="74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Debab Asrat Ynessu</DisplayName>
-        <AccountId>1816</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kouadio Ngoran</DisplayName>
-        <AccountId>1387</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rokya Ye Dieng</DisplayName>
-        <AccountId>1431</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Elhadj Oumar Diallo</DisplayName>
-        <AccountId>1895</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fungai Matura</DisplayName>
-        <AccountId>1028</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2628,8 +2740,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Debab Asrat Ynessu</DisplayName>
+        <AccountId>1816</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kouadio Ngoran</DisplayName>
+        <AccountId>1387</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rokya Ye Dieng</DisplayName>
+        <AccountId>1431</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Elhadj Oumar Diallo</DisplayName>
+        <AccountId>1895</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fungai Matura</DisplayName>
+        <AccountId>1028</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CFD9792-90D9-4CA6-B20A-96366DE8EF18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DBF9BBA-7752-48D7-B636-C34F357814B9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2637,5 +2806,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADF37D45-3331-4BA7-A846-A83D48A6FFD8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CFD9792-90D9-4CA6-B20A-96366DE8EF18}"/>
 </file>
--- a/01_Input/00_CO Validation/Dem. Rep. of the Congo - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Dem. Rep. of the Congo - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="346" documentId="11_2006316D69CDF873991CF25EA14C6D3E783B1F6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49BF6FC-21D8-4FE9-BF26-9668EF0E1FE3}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="11_2006316D69CDF873991CF25EA14C6D3E783B1F6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86F5644-AD4A-44E8-9C02-EFF4FBCFCF29}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
   <si>
     <t>Project ID</t>
   </si>
@@ -249,10 +249,6 @@
   </si>
   <si>
     <t>https://open.undp.org/projects/00101442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy and Regulatory Framework
-</t>
   </si>
   <si>
     <t>Number of Policies
@@ -1254,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF9C77E-62DB-45BF-8B95-93633D45B2E3}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1654,18 +1650,18 @@
         <v>15000000</v>
       </c>
       <c r="E9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="57" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>59</v>
       </c>
       <c r="G9" s="56"/>
       <c r="H9" s="60"/>
       <c r="I9" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="40" t="s">
         <v>60</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>61</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="71" t="s">
@@ -1676,18 +1672,18 @@
         <v>28</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" s="38"/>
       <c r="Q9" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U9" s="17"/>
     </row>
@@ -1697,12 +1693,12 @@
       <c r="C10" s="61"/>
       <c r="D10" s="55"/>
       <c r="E10" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="53"/>
       <c r="H10" s="54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="54"/>
       <c r="J10" s="38"/>
@@ -1733,7 +1729,7 @@
       <c r="F11" s="50"/>
       <c r="G11" s="53"/>
       <c r="H11" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="38"/>
@@ -1750,7 +1746,7 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T11" s="38"/>
       <c r="U11" s="17"/>
@@ -1860,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="229.5">
@@ -1886,13 +1882,13 @@
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
       <c r="I2" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="14" customFormat="1" ht="188.25">
@@ -1937,7 +1933,7 @@
         <v>500000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>46</v>
@@ -1956,10 +1952,10 @@
         <v>50</v>
       </c>
       <c r="M4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" t="s">
         <v>73</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="108" customHeight="1">
@@ -1976,10 +1972,10 @@
         <v>3187669</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="G5" s="6">
         <v>20</v>
@@ -2011,18 +2007,18 @@
         <v>15000000</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2149,7 +2145,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="17" t="s">
@@ -2170,11 +2166,11 @@
         <v>39</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>41</v>
@@ -2197,7 +2193,7 @@
         <v>500000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>46</v>
@@ -2206,7 +2202,7 @@
         <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>48</v>
@@ -2229,16 +2225,16 @@
         <v>3187669</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>54</v>
@@ -2261,20 +2257,20 @@
         <v>15000000</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="J8" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2323,7 +2319,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2331,31 +2327,31 @@
         <v>39</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="66" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="66" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
@@ -2363,7 +2359,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
@@ -2371,7 +2367,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
@@ -2379,95 +2375,95 @@
         <v>33</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="74" t="s">
         <v>99</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="74" t="s">
         <v>101</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="66" t="s">
         <v>103</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="74" t="s">
         <v>105</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="74" t="s">
         <v>107</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="74" t="s">
         <v>109</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="74" t="s">
         <v>111</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
       <c r="A17" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="66" t="s">
         <v>113</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
       <c r="A18" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="74" t="s">
         <v>115</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="74" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="74" t="s">
         <v>119</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
@@ -2475,15 +2471,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="74" t="s">
         <v>122</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2492,8 +2488,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Debab Asrat Ynessu</DisplayName>
+        <AccountId>1816</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kouadio Ngoran</DisplayName>
+        <AccountId>1387</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rokya Ye Dieng</DisplayName>
+        <AccountId>1431</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Elhadj Oumar Diallo</DisplayName>
+        <AccountId>1895</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fungai Matura</DisplayName>
+        <AccountId>1028</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2518,6 +2571,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2597,6 +2651,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2740,65 +2799,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Debab Asrat Ynessu</DisplayName>
-        <AccountId>1816</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kouadio Ngoran</DisplayName>
-        <AccountId>1387</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rokya Ye Dieng</DisplayName>
-        <AccountId>1431</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Elhadj Oumar Diallo</DisplayName>
-        <AccountId>1895</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fungai Matura</DisplayName>
-        <AccountId>1028</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DBF9BBA-7752-48D7-B636-C34F357814B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CFD9792-90D9-4CA6-B20A-96366DE8EF18}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2806,5 +2808,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CFD9792-90D9-4CA6-B20A-96366DE8EF18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9909621-1EFA-4C67-918B-730F5203D6EC}"/>
 </file>
--- a/01_Input/00_CO Validation/Dem. Rep. of the Congo - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Dem. Rep. of the Congo - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="347" documentId="11_2006316D69CDF873991CF25EA14C6D3E783B1F6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86F5644-AD4A-44E8-9C02-EFF4FBCFCF29}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="11_2006316D69CDF873991CF25EA14C6D3E783B1F6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75A39E49-47DB-4D11-8919-7E4F711E911B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF9C77E-62DB-45BF-8B95-93633D45B2E3}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="9" spans="1:21" ht="113.25">
       <c r="A9" s="56">
-        <v>113647</v>
+        <v>101442</v>
       </c>
       <c r="B9" s="57" t="s">
         <v>56</v>
@@ -2488,63 +2488,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Debab Asrat Ynessu</DisplayName>
-        <AccountId>1816</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kouadio Ngoran</DisplayName>
-        <AccountId>1387</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rokya Ye Dieng</DisplayName>
-        <AccountId>1431</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Elhadj Oumar Diallo</DisplayName>
-        <AccountId>1895</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Fungai Matura</DisplayName>
-        <AccountId>1028</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2799,8 +2742,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Debab Asrat Ynessu</DisplayName>
+        <AccountId>1816</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kouadio Ngoran</DisplayName>
+        <AccountId>1387</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rokya Ye Dieng</DisplayName>
+        <AccountId>1431</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Elhadj Oumar Diallo</DisplayName>
+        <AccountId>1895</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Fungai Matura</DisplayName>
+        <AccountId>1028</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CFD9792-90D9-4CA6-B20A-96366DE8EF18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9909621-1EFA-4C67-918B-730F5203D6EC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2808,5 +2808,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9909621-1EFA-4C67-918B-730F5203D6EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CFD9792-90D9-4CA6-B20A-96366DE8EF18}"/>
 </file>